--- a/verification_parser.xlsx
+++ b/verification_parser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVIDCORZO\Desktop\3_2\compi\Proyecto Final\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E00DABE-BF8B-41C9-B6D6-FE1F0E6DF39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3ABE6E-0747-46EC-AD39-CBCC706EA47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13815" yWindow="1170" windowWidth="14400" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,85 +25,161 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
-  <si>
-    <t>&lt;S´&gt; -&gt; • &lt;S&gt; $</t>
-  </si>
-  <si>
-    <t>&lt;S&gt; -&gt; • &lt;A&gt; &lt;A&gt;</t>
-  </si>
-  <si>
-    <t>&lt;A&gt; -&gt; • a &lt;A&gt;</t>
-  </si>
-  <si>
-    <t>&lt;A&gt; -&gt; • b</t>
-  </si>
-  <si>
-    <t>&lt;A&gt; -&gt; b •</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
   <si>
     <t>{}</t>
   </si>
   <si>
-    <t>&lt;A&gt; -&gt; a • &lt;A&gt;</t>
-  </si>
-  <si>
-    <t>&lt;A&gt; -&gt; a &lt;A&gt; •</t>
-  </si>
-  <si>
-    <t>&lt;S&gt; -&gt; &lt;A&gt; • &lt;A&gt;</t>
-  </si>
-  <si>
-    <t>&lt;S&gt; -&gt; &lt;A&gt; &lt;A&gt; •</t>
-  </si>
-  <si>
-    <t>&lt;S´&gt; -&gt; &lt;S&gt; • $</t>
-  </si>
-  <si>
-    <t>state=0 (0)</t>
-  </si>
-  <si>
-    <t>state=3 (6)</t>
-  </si>
-  <si>
-    <t>{'a': 1(3), '&lt;A&gt;': 4(2), 'b': 2(4), '&lt;S&gt;': 6(1)}</t>
-  </si>
-  <si>
-    <t>state=2 (4)</t>
-  </si>
-  <si>
-    <t>state=1 (3)</t>
-  </si>
-  <si>
-    <t>state=4 (2)</t>
-  </si>
-  <si>
-    <t>state=6 (1)</t>
-  </si>
-  <si>
-    <t>state=5 (5)</t>
-  </si>
-  <si>
-    <t>{'a': 1(3), 'b': 2(4), '&lt;A&gt;': 3(6)}</t>
-  </si>
-  <si>
-    <t>{'a': 1(3), '&lt;A&gt;': 5(5), 'b': 2(4)}</t>
+    <t>state=0</t>
+  </si>
+  <si>
+    <t>&lt;program&gt; -&gt; • &lt;program"&gt; $</t>
+  </si>
+  <si>
+    <t>&lt;program"&gt; -&gt; • class %id% { &lt;field_decl*&gt; }</t>
+  </si>
+  <si>
+    <t>{'&lt;program"&gt;': 1, 'class': 3}</t>
+  </si>
+  <si>
+    <t>state=1</t>
+  </si>
+  <si>
+    <t>&lt;program&gt; -&gt; &lt;program"&gt; • $</t>
+  </si>
+  <si>
+    <t>{'$': 2}</t>
+  </si>
+  <si>
+    <t>state=2</t>
+  </si>
+  <si>
+    <t>&lt;program&gt; -&gt; &lt;program"&gt; $ •</t>
+  </si>
+  <si>
+    <t>state=3</t>
+  </si>
+  <si>
+    <t>&lt;program"&gt; -&gt; class • %id% { &lt;field_decl*&gt; }</t>
+  </si>
+  <si>
+    <t>{'%id%': 4}</t>
+  </si>
+  <si>
+    <t>state=4</t>
+  </si>
+  <si>
+    <t>&lt;program"&gt; -&gt; class %id% • { &lt;field_decl*&gt; }</t>
+  </si>
+  <si>
+    <t>{'{': 5}</t>
+  </si>
+  <si>
+    <t>state=5</t>
+  </si>
+  <si>
+    <t>&lt;program"&gt; -&gt; class %id% { • &lt;field_decl*&gt; }</t>
+  </si>
+  <si>
+    <t>&lt;field_decl*&gt; -&gt; • %type% &lt;id|id[int]&gt; ;</t>
+  </si>
+  <si>
+    <t>{'&lt;field_decl*&gt;': 6, '%type%': 8}</t>
+  </si>
+  <si>
+    <t>state=6</t>
+  </si>
+  <si>
+    <t>&lt;program"&gt; -&gt; class %id% { &lt;field_decl*&gt; • }</t>
+  </si>
+  <si>
+    <t>{'}': 7}</t>
+  </si>
+  <si>
+    <t>state=7</t>
+  </si>
+  <si>
+    <t>&lt;program"&gt; -&gt; class %id% { &lt;field_decl*&gt; } •</t>
+  </si>
+  <si>
+    <t>state=8</t>
+  </si>
+  <si>
+    <t>&lt;field_decl*&gt; -&gt; %type% • &lt;id|id[int]&gt; ;</t>
+  </si>
+  <si>
+    <t>&lt;id|id[int]&gt; -&gt; • %id% &lt;[int]&gt;</t>
+  </si>
+  <si>
+    <t>{'%id%': 9, '&lt;id|id[int]&gt;': 14}</t>
+  </si>
+  <si>
+    <t>state=9</t>
+  </si>
+  <si>
+    <t>&lt;id|id[int]&gt; -&gt; %id% • &lt;[int]&gt;</t>
+  </si>
+  <si>
+    <t>&lt;[int]&gt; -&gt; • [ %int_literal% ]</t>
+  </si>
+  <si>
+    <t>&lt;[int]&gt; -&gt; •</t>
+  </si>
+  <si>
+    <t>{'&lt;[int]&gt;': 10, '[': 11}</t>
+  </si>
+  <si>
+    <t>state=10</t>
+  </si>
+  <si>
+    <t>&lt;id|id[int]&gt; -&gt; %id% &lt;[int]&gt; •</t>
+  </si>
+  <si>
+    <t>state=11</t>
+  </si>
+  <si>
+    <t>&lt;[int]&gt; -&gt; [ • %int_literal% ]</t>
+  </si>
+  <si>
+    <t>{'%int_literal%': 12}</t>
+  </si>
+  <si>
+    <t>state=12</t>
+  </si>
+  <si>
+    <t>&lt;[int]&gt; -&gt; [ %int_literal% • ]</t>
+  </si>
+  <si>
+    <t>{']': 13}</t>
+  </si>
+  <si>
+    <t>state=13</t>
+  </si>
+  <si>
+    <t>&lt;[int]&gt; -&gt; [ %int_literal% ] •</t>
+  </si>
+  <si>
+    <t>state=14</t>
+  </si>
+  <si>
+    <t>&lt;field_decl*&gt; -&gt; %type% &lt;id|id[int]&gt; • ;</t>
+  </si>
+  <si>
+    <t>{';': 15}</t>
+  </si>
+  <si>
+    <t>state=15</t>
+  </si>
+  <si>
+    <t>&lt;field_decl*&gt; -&gt; %type% &lt;id|id[int]&gt; ; •</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -168,16 +244,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,211 +542,627 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L28"/>
+  <dimension ref="B1:L100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.85546875" customWidth="1"/>
     <col min="4" max="4" width="1.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="2"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L28" s="2"/>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
